--- a/travellerbase.xlsx
+++ b/travellerbase.xlsx
@@ -16,16 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>soulid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -43,6 +39,30 @@
   </si>
   <si>
     <t>Heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soulbaseid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weaponbaseid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clothbaseid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trinketbaseid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,15 +407,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="8" width="10.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,64 +430,109 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>1000</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>2</v>
       </c>
     </row>

--- a/travellerbase.xlsx
+++ b/travellerbase.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J3">
         <v>1</v>

--- a/travellerbase.xlsx
+++ b/travellerbase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weaponbaseid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>clothbaseid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,6 +59,14 @@
   </si>
   <si>
     <t>skill2id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weaponrbaseid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weaponlbaseid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,22 +411,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="8" width="10.875" customWidth="1"/>
+    <col min="4" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="9" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,34 +437,37 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
       <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -474,31 +481,34 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>5</v>
       </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
@@ -512,27 +522,30 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
         <v>3</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>5</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>2</v>
       </c>
     </row>

--- a/travellerbase.xlsx
+++ b/travellerbase.xlsx
@@ -414,7 +414,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -475,7 +475,7 @@
         <v>0.2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -516,7 +516,7 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1001</v>
       </c>
       <c r="D3">
         <v>1</v>

--- a/travellerbase.xlsx
+++ b/travellerbase.xlsx
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -475,7 +475,7 @@
         <v>0.2</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -484,13 +484,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -513,10 +513,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C3">
-        <v>1001</v>
+        <v>2001</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -525,10 +525,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -546,6 +546,129 @@
         <v>1</v>
       </c>
       <c r="M3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>3000</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>4000</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6">
+        <v>5000</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>2</v>
       </c>
     </row>
